--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H2">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I2">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J2">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q2">
-        <v>7.271595381528242</v>
+        <v>12.83624484757175</v>
       </c>
       <c r="R2">
-        <v>7.271595381528242</v>
+        <v>51.344979390287</v>
       </c>
       <c r="S2">
-        <v>0.01109663972263705</v>
+        <v>0.01417161260187069</v>
       </c>
       <c r="T2">
-        <v>0.01109663972263705</v>
+        <v>0.007865795543284647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H3">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I3">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J3">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N3">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O3">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P3">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q3">
-        <v>4.583909825702166</v>
+        <v>9.108722168658332</v>
       </c>
       <c r="R3">
-        <v>4.583909825702166</v>
+        <v>54.65233301195</v>
       </c>
       <c r="S3">
-        <v>0.006995163122811518</v>
+        <v>0.01005631190470136</v>
       </c>
       <c r="T3">
-        <v>0.006995163122811518</v>
+        <v>0.008372465673183744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H4">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I4">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J4">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N4">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O4">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P4">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q4">
-        <v>10.273560039254</v>
+        <v>19.15802753358667</v>
       </c>
       <c r="R4">
-        <v>10.273560039254</v>
+        <v>114.94816520152</v>
       </c>
       <c r="S4">
-        <v>0.01567771423504634</v>
+        <v>0.02115105684302387</v>
       </c>
       <c r="T4">
-        <v>0.01567771423504634</v>
+        <v>0.01760948735957433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H5">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I5">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J5">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N5">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O5">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P5">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q5">
-        <v>6.01257499165339</v>
+        <v>10.781684986062</v>
       </c>
       <c r="R5">
-        <v>6.01257499165339</v>
+        <v>64.69010991637199</v>
       </c>
       <c r="S5">
-        <v>0.009175342546863899</v>
+        <v>0.0119033147647367</v>
       </c>
       <c r="T5">
-        <v>0.009175342546863899</v>
+        <v>0.009910203184754818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H6">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I6">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J6">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N6">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O6">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P6">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q6">
-        <v>6.204138346351061</v>
+        <v>11.20912508140767</v>
       </c>
       <c r="R6">
-        <v>6.204138346351061</v>
+        <v>67.25475048844601</v>
       </c>
       <c r="S6">
-        <v>0.009467673104273579</v>
+        <v>0.01237522189284756</v>
       </c>
       <c r="T6">
-        <v>0.009467673104273579</v>
+        <v>0.01030309336840076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H7">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I7">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J7">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N7">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O7">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P7">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q7">
-        <v>2.599300755049977</v>
+        <v>4.684792273415249</v>
       </c>
       <c r="R7">
-        <v>2.599300755049977</v>
+        <v>18.739169093661</v>
       </c>
       <c r="S7">
-        <v>0.003966599143131382</v>
+        <v>0.005172156032193268</v>
       </c>
       <c r="T7">
-        <v>0.003966599143131382</v>
+        <v>0.002870747529595068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J8">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N8">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O8">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P8">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q8">
-        <v>72.52953858713759</v>
+        <v>85.74217098944384</v>
       </c>
       <c r="R8">
-        <v>72.52953858713759</v>
+        <v>514.453025936663</v>
       </c>
       <c r="S8">
-        <v>0.1106819228411769</v>
+        <v>0.09466201722816285</v>
       </c>
       <c r="T8">
-        <v>0.1106819228411769</v>
+        <v>0.07881164559211806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J9">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q9">
-        <v>45.72158476086038</v>
+        <v>60.84346496617222</v>
       </c>
       <c r="R9">
-        <v>45.72158476086038</v>
+        <v>547.5911846955501</v>
       </c>
       <c r="S9">
-        <v>0.06977230264050405</v>
+        <v>0.06717307320755858</v>
       </c>
       <c r="T9">
-        <v>0.06977230264050405</v>
+        <v>0.08388824674326432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J10">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N10">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O10">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P10">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q10">
-        <v>102.4722265470367</v>
+        <v>127.9697366411645</v>
       </c>
       <c r="R10">
-        <v>102.4722265470367</v>
+        <v>1151.72762977048</v>
       </c>
       <c r="S10">
-        <v>0.1563752271554377</v>
+        <v>0.1412825599680789</v>
       </c>
       <c r="T10">
-        <v>0.1563752271554377</v>
+        <v>0.1764389462203228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J11">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N11">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O11">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P11">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q11">
-        <v>59.97161104053784</v>
+        <v>72.018342483092</v>
       </c>
       <c r="R11">
-        <v>59.97161104053784</v>
+        <v>648.1650823478279</v>
       </c>
       <c r="S11">
-        <v>0.09151820561873847</v>
+        <v>0.07951048472655903</v>
       </c>
       <c r="T11">
-        <v>0.09151820561873847</v>
+        <v>0.09929566778653202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J12">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N12">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O12">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P12">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q12">
-        <v>61.88233365331146</v>
+        <v>74.87351096718379</v>
       </c>
       <c r="R12">
-        <v>61.88233365331146</v>
+        <v>673.8615987046541</v>
       </c>
       <c r="S12">
-        <v>0.09443401698218491</v>
+        <v>0.08266267932475364</v>
       </c>
       <c r="T12">
-        <v>0.09443401698218491</v>
+        <v>0.1032322463232779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J13">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N13">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O13">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P13">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q13">
-        <v>25.92637165867051</v>
+        <v>31.2929727445315</v>
       </c>
       <c r="R13">
-        <v>25.92637165867051</v>
+        <v>187.757836467189</v>
       </c>
       <c r="S13">
-        <v>0.03956430336350628</v>
+        <v>0.03454841288574288</v>
       </c>
       <c r="T13">
-        <v>0.03956430336350628</v>
+        <v>0.02876356697067374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H14">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I14">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J14">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N14">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O14">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P14">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q14">
-        <v>7.192628699560998</v>
+        <v>1.0683412425675</v>
       </c>
       <c r="R14">
-        <v>7.192628699560998</v>
+        <v>6.410047455405</v>
       </c>
       <c r="S14">
-        <v>0.01097613455507664</v>
+        <v>0.001179481880881374</v>
       </c>
       <c r="T14">
-        <v>0.01097613455507664</v>
+        <v>0.0009819873979052718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H15">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I15">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J15">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N15">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O15">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P15">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q15">
-        <v>4.534130357733932</v>
+        <v>0.75810516825</v>
       </c>
       <c r="R15">
-        <v>4.534130357733932</v>
+        <v>6.822946514249999</v>
       </c>
       <c r="S15">
-        <v>0.006919198387062985</v>
+        <v>0.0008369716286572214</v>
       </c>
       <c r="T15">
-        <v>0.006919198387062985</v>
+        <v>0.001045241480689144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H16">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I16">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J16">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q16">
-        <v>10.16199319515374</v>
+        <v>1.5944936532</v>
       </c>
       <c r="R16">
-        <v>10.16199319515374</v>
+        <v>14.3504428788</v>
       </c>
       <c r="S16">
-        <v>0.01550746038991119</v>
+        <v>0.001760370467969577</v>
       </c>
       <c r="T16">
-        <v>0.01550746038991119</v>
+        <v>0.002198416495256772</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J17">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N17">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O17">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P17">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q17">
-        <v>5.947280778725069</v>
+        <v>0.8973433330199999</v>
       </c>
       <c r="R17">
-        <v>5.947280778725069</v>
+        <v>8.076089997179999</v>
       </c>
       <c r="S17">
-        <v>0.009075701915224898</v>
+        <v>0.0009906948829225962</v>
       </c>
       <c r="T17">
-        <v>0.009075701915224898</v>
+        <v>0.001237216831350043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H18">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I18">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J18">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N18">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O18">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P18">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q18">
-        <v>6.136763830309972</v>
+        <v>0.93291852561</v>
       </c>
       <c r="R18">
-        <v>6.136763830309972</v>
+        <v>8.39626673049</v>
       </c>
       <c r="S18">
-        <v>0.009364857877109788</v>
+        <v>0.001029970999388838</v>
       </c>
       <c r="T18">
-        <v>0.009364857877109788</v>
+        <v>0.001286266314899153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H19">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I19">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J19">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="N19">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="O19">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="P19">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="Q19">
-        <v>2.571073365420645</v>
+        <v>0.3899081747024999</v>
       </c>
       <c r="R19">
-        <v>2.571073365420645</v>
+        <v>2.339449048215</v>
       </c>
       <c r="S19">
-        <v>0.003923523427749462</v>
+        <v>0.0004304707231594789</v>
       </c>
       <c r="T19">
-        <v>0.003923523427749462</v>
+        <v>0.0003583919618959301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H20">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I20">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J20">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="N20">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="O20">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="P20">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="Q20">
-        <v>41.98295513013871</v>
+        <v>21.044641254879</v>
       </c>
       <c r="R20">
-        <v>41.98295513013871</v>
+        <v>126.267847529274</v>
       </c>
       <c r="S20">
-        <v>0.06406705862020558</v>
+        <v>0.02323393693023149</v>
       </c>
       <c r="T20">
-        <v>0.06406705862020558</v>
+        <v>0.01934360640806476</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H21">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I21">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J21">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="N21">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="O21">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="P21">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="Q21">
-        <v>26.46545502544317</v>
+        <v>14.9334788021</v>
       </c>
       <c r="R21">
-        <v>26.46545502544317</v>
+        <v>134.4013092189</v>
       </c>
       <c r="S21">
-        <v>0.04038695830890358</v>
+        <v>0.01648702396181261</v>
       </c>
       <c r="T21">
-        <v>0.04038695830890358</v>
+        <v>0.02058961229743199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H22">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I22">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J22">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="N22">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="O22">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="P22">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="Q22">
-        <v>59.31496288289616</v>
+        <v>31.40901575056</v>
       </c>
       <c r="R22">
-        <v>59.31496288289616</v>
+        <v>282.68114175504</v>
       </c>
       <c r="S22">
-        <v>0.09051614380869979</v>
+        <v>0.03467652796504534</v>
       </c>
       <c r="T22">
-        <v>0.09051614380869979</v>
+        <v>0.04330534535978476</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H23">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I23">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J23">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="N23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="O23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="P23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="Q23">
-        <v>34.71393179169536</v>
+        <v>17.676251532216</v>
       </c>
       <c r="R23">
-        <v>34.71393179169536</v>
+        <v>159.086263789944</v>
       </c>
       <c r="S23">
-        <v>0.05297434390081288</v>
+        <v>0.01951513016013993</v>
       </c>
       <c r="T23">
-        <v>0.05297434390081288</v>
+        <v>0.02437122459831905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H24">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I24">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J24">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="N24">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="O24">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="P24">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="Q24">
-        <v>35.81993333645691</v>
+        <v>18.377026842388</v>
       </c>
       <c r="R24">
-        <v>35.81993333645691</v>
+        <v>165.393241581492</v>
       </c>
       <c r="S24">
-        <v>0.05466213042233405</v>
+        <v>0.02028880784661629</v>
       </c>
       <c r="T24">
-        <v>0.05466213042233405</v>
+        <v>0.02533742223620803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.206538</v>
+      </c>
+      <c r="H25">
+        <v>0.619614</v>
+      </c>
+      <c r="I25">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J25">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.1872365</v>
+      </c>
+      <c r="N25">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="O25">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="P25">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="Q25">
+        <v>7.680577452236999</v>
+      </c>
+      <c r="R25">
+        <v>46.083464713422</v>
+      </c>
+      <c r="S25">
+        <v>0.008479595824502856</v>
+      </c>
+      <c r="T25">
+        <v>0.00705975765627674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4990375</v>
+      </c>
+      <c r="H26">
+        <v>0.998075</v>
+      </c>
+      <c r="I26">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J26">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>101.8923455</v>
+      </c>
+      <c r="N26">
+        <v>203.784691</v>
+      </c>
+      <c r="O26">
+        <v>0.1893849302940161</v>
+      </c>
+      <c r="P26">
+        <v>0.138161740144498</v>
+      </c>
+      <c r="Q26">
+        <v>50.84810136745625</v>
+      </c>
+      <c r="R26">
+        <v>203.392405469825</v>
+      </c>
+      <c r="S26">
+        <v>0.05613788165286968</v>
+      </c>
+      <c r="T26">
+        <v>0.03115870520312523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4990375</v>
+      </c>
+      <c r="H27">
+        <v>0.998075</v>
+      </c>
+      <c r="I27">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J27">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>72.30378333333333</v>
+      </c>
+      <c r="N27">
+        <v>216.91135</v>
+      </c>
+      <c r="O27">
+        <v>0.1343893586842298</v>
+      </c>
+      <c r="P27">
+        <v>0.147061339230297</v>
+      </c>
+      <c r="Q27">
+        <v>36.08229927520834</v>
+      </c>
+      <c r="R27">
+        <v>216.49379565125</v>
+      </c>
+      <c r="S27">
+        <v>0.03983597798150006</v>
+      </c>
+      <c r="T27">
+        <v>0.03316577303572778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4990375</v>
+      </c>
+      <c r="H28">
+        <v>0.998075</v>
+      </c>
+      <c r="I28">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J28">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>152.0737866666667</v>
+      </c>
+      <c r="N28">
+        <v>456.22136</v>
+      </c>
+      <c r="O28">
+        <v>0.2826560066517826</v>
+      </c>
+      <c r="P28">
+        <v>0.3093084994725608</v>
+      </c>
+      <c r="Q28">
+        <v>75.89052231366668</v>
+      </c>
+      <c r="R28">
+        <v>455.343133882</v>
+      </c>
+      <c r="S28">
+        <v>0.08378549140766502</v>
+      </c>
+      <c r="T28">
+        <v>0.06975630403762209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4990375</v>
+      </c>
+      <c r="H29">
+        <v>0.998075</v>
+      </c>
+      <c r="I29">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J29">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>85.58353199999999</v>
+      </c>
+      <c r="N29">
+        <v>256.750596</v>
+      </c>
+      <c r="O29">
+        <v>0.1590721183480431</v>
+      </c>
+      <c r="P29">
+        <v>0.1740715112230731</v>
+      </c>
+      <c r="Q29">
+        <v>42.70939185045</v>
+      </c>
+      <c r="R29">
+        <v>256.2563511027</v>
+      </c>
+      <c r="S29">
+        <v>0.04715249381368481</v>
+      </c>
+      <c r="T29">
+        <v>0.03925719882211714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="H25">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="I25">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="J25">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.4153435754473</v>
-      </c>
-      <c r="N25">
-        <v>36.4153435754473</v>
-      </c>
-      <c r="O25">
-        <v>0.07035580384498431</v>
-      </c>
-      <c r="P25">
-        <v>0.07035580384498431</v>
-      </c>
-      <c r="Q25">
-        <v>15.00720560528</v>
-      </c>
-      <c r="R25">
-        <v>15.00720560528</v>
-      </c>
-      <c r="S25">
-        <v>0.02290137791059719</v>
-      </c>
-      <c r="T25">
-        <v>0.02290137791059719</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4990375</v>
+      </c>
+      <c r="H30">
+        <v>0.998075</v>
+      </c>
+      <c r="I30">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J30">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>88.97649266666667</v>
+      </c>
+      <c r="N30">
+        <v>266.929478</v>
+      </c>
+      <c r="O30">
+        <v>0.1653785353432923</v>
+      </c>
+      <c r="P30">
+        <v>0.180972579418846</v>
+      </c>
+      <c r="Q30">
+        <v>44.40260645914167</v>
+      </c>
+      <c r="R30">
+        <v>266.41563875485</v>
+      </c>
+      <c r="S30">
+        <v>0.04902185527968596</v>
+      </c>
+      <c r="T30">
+        <v>0.04081355117606015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4990375</v>
+      </c>
+      <c r="H31">
+        <v>0.998075</v>
+      </c>
+      <c r="I31">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J31">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.1872365</v>
+      </c>
+      <c r="N31">
+        <v>74.37447299999999</v>
+      </c>
+      <c r="O31">
+        <v>0.06911905067863601</v>
+      </c>
+      <c r="P31">
+        <v>0.05042433051072507</v>
+      </c>
+      <c r="Q31">
+        <v>18.55782553486875</v>
+      </c>
+      <c r="R31">
+        <v>74.23130213947501</v>
+      </c>
+      <c r="S31">
+        <v>0.02048841521303753</v>
+      </c>
+      <c r="T31">
+        <v>0.0113718663922836</v>
       </c>
     </row>
   </sheetData>
